--- a/sim_results.xlsx
+++ b/sim_results.xlsx
@@ -507,22 +507,22 @@
         <v>1809</v>
       </c>
       <c r="C2">
-        <v>0.5268000000000073</v>
+        <v>0.5114799999999484</v>
       </c>
       <c r="D2">
-        <v>0.1676000000000007</v>
+        <v>0.3034800000000131</v>
       </c>
       <c r="E2">
-        <v>0.06519999999999983</v>
+        <v>0.1105599999999962</v>
       </c>
       <c r="F2">
-        <v>0.03759999999999999</v>
+        <v>0.05015999999999863</v>
       </c>
       <c r="G2">
-        <v>0.008400000000000001</v>
+        <v>0.01667999999999999</v>
       </c>
       <c r="H2">
-        <v>0.004800000000000001</v>
+        <v>0.007640000000000017</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -533,22 +533,22 @@
         <v>2008</v>
       </c>
       <c r="C3">
-        <v>0.04599999999999994</v>
+        <v>0.05527999999999842</v>
       </c>
       <c r="D3">
-        <v>0.2780000000000039</v>
+        <v>0.3365600000000003</v>
       </c>
       <c r="E3">
-        <v>0.2516000000000031</v>
+        <v>0.2623600000000291</v>
       </c>
       <c r="F3">
-        <v>0.1640000000000006</v>
+        <v>0.1560800000000051</v>
       </c>
       <c r="G3">
-        <v>0.07799999999999975</v>
+        <v>0.09387999999999685</v>
       </c>
       <c r="H3">
-        <v>0.08959999999999968</v>
+        <v>0.09583999999999677</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -559,22 +559,22 @@
         <v>1845</v>
       </c>
       <c r="C4">
-        <v>0.3944000000000072</v>
+        <v>0.3853999999999814</v>
       </c>
       <c r="D4">
-        <v>0.2244000000000023</v>
+        <v>0.3591199999999916</v>
       </c>
       <c r="E4">
-        <v>0.1123999999999995</v>
+        <v>0.1462000000000021</v>
       </c>
       <c r="F4">
-        <v>0.05199999999999991</v>
+        <v>0.06935999999999785</v>
       </c>
       <c r="G4">
-        <v>0.01759999999999999</v>
+        <v>0.02579999999999962</v>
       </c>
       <c r="H4">
-        <v>0.0092</v>
+        <v>0.01412000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -585,22 +585,22 @@
         <v>1886</v>
       </c>
       <c r="C5">
-        <v>0.3108000000000048</v>
+        <v>0.3273200000000039</v>
       </c>
       <c r="D5">
-        <v>0.2168000000000021</v>
+        <v>0.352839999999994</v>
       </c>
       <c r="E5">
-        <v>0.1151999999999995</v>
+        <v>0.1679200000000087</v>
       </c>
       <c r="F5">
-        <v>0.0691999999999998</v>
+        <v>0.08823999999999708</v>
       </c>
       <c r="G5">
-        <v>0.02480000000000001</v>
+        <v>0.03891999999999909</v>
       </c>
       <c r="H5">
-        <v>0.01359999999999999</v>
+        <v>0.02475999999999966</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -614,22 +614,22 @@
         <v>1972</v>
       </c>
       <c r="C7">
-        <v>0.06079999999999985</v>
+        <v>0.08203999999999734</v>
       </c>
       <c r="D7">
-        <v>0.3424000000000057</v>
+        <v>0.4348399999999622</v>
       </c>
       <c r="E7">
-        <v>0.214800000000002</v>
+        <v>0.2377200000000301</v>
       </c>
       <c r="F7">
-        <v>0.1363999999999998</v>
+        <v>0.1390399999999999</v>
       </c>
       <c r="G7">
-        <v>0.05879999999999987</v>
+        <v>0.06199999999999815</v>
       </c>
       <c r="H7">
-        <v>0.03799999999999999</v>
+        <v>0.04435999999999887</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -640,22 +640,22 @@
         <v>1709</v>
       </c>
       <c r="C8">
-        <v>0.7991999999999773</v>
+        <v>0.7786400000002156</v>
       </c>
       <c r="D8">
-        <v>0.06279999999999984</v>
+        <v>0.1595600000000062</v>
       </c>
       <c r="E8">
-        <v>0.02280000000000001</v>
+        <v>0.04279999999999893</v>
       </c>
       <c r="F8">
-        <v>0.009999999999999998</v>
+        <v>0.01424000000000003</v>
       </c>
       <c r="G8">
-        <v>0.0012</v>
+        <v>0.003400000000000006</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001360000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -666,22 +666,22 @@
         <v>2107</v>
       </c>
       <c r="C9">
-        <v>0.04479999999999995</v>
+        <v>0.05119999999999859</v>
       </c>
       <c r="D9">
-        <v>0.2508000000000031</v>
+        <v>0.3251600000000047</v>
       </c>
       <c r="E9">
-        <v>0.2080000000000019</v>
+        <v>0.2188800000000243</v>
       </c>
       <c r="F9">
-        <v>0.1560000000000004</v>
+        <v>0.1645200000000077</v>
       </c>
       <c r="G9">
-        <v>0.08439999999999971</v>
+        <v>0.1010799999999966</v>
       </c>
       <c r="H9">
-        <v>0.1283999999999996</v>
+        <v>0.1391599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -692,22 +692,22 @@
         <v>1737</v>
       </c>
       <c r="C10">
-        <v>0.458400000000009</v>
+        <v>0.4495199999999565</v>
       </c>
       <c r="D10">
-        <v>0.1724000000000008</v>
+        <v>0.3697599999999874</v>
       </c>
       <c r="E10">
-        <v>0.07119999999999979</v>
+        <v>0.1168799999999959</v>
       </c>
       <c r="F10">
-        <v>0.03120000000000003</v>
+        <v>0.04543999999999882</v>
       </c>
       <c r="G10">
-        <v>0.007600000000000003</v>
+        <v>0.01284000000000003</v>
       </c>
       <c r="H10">
-        <v>0.0028</v>
+        <v>0.005560000000000012</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -721,22 +721,22 @@
         <v>1955</v>
       </c>
       <c r="C12">
-        <v>0.0212</v>
+        <v>0.02651999999999959</v>
       </c>
       <c r="D12">
-        <v>0.4140000000000078</v>
+        <v>0.4758799999999463</v>
       </c>
       <c r="E12">
-        <v>0.2776000000000038</v>
+        <v>0.2496800000000338</v>
       </c>
       <c r="F12">
-        <v>0.1668000000000007</v>
+        <v>0.1430000000000011</v>
       </c>
       <c r="G12">
-        <v>0.06599999999999982</v>
+        <v>0.06083999999999819</v>
       </c>
       <c r="H12">
-        <v>0.05799999999999987</v>
+        <v>0.04407999999999888</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -747,22 +747,22 @@
         <v>1810</v>
       </c>
       <c r="C13">
-        <v>0.2356000000000026</v>
+        <v>0.2194800000000245</v>
       </c>
       <c r="D13">
-        <v>0.556000000000004</v>
+        <v>0.4835199999999433</v>
       </c>
       <c r="E13">
-        <v>0.1928000000000014</v>
+        <v>0.1836800000000136</v>
       </c>
       <c r="F13">
-        <v>0.08359999999999972</v>
+        <v>0.07383999999999767</v>
       </c>
       <c r="G13">
-        <v>0.02880000000000002</v>
+        <v>0.02607999999999961</v>
       </c>
       <c r="H13">
-        <v>0.0112</v>
+        <v>0.01340000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -773,22 +773,22 @@
         <v>1755</v>
       </c>
       <c r="C14">
-        <v>0.4272000000000081</v>
+        <v>0.4346799999999623</v>
       </c>
       <c r="D14">
-        <v>0.4776000000000096</v>
+        <v>0.3903599999999794</v>
       </c>
       <c r="E14">
-        <v>0.1444</v>
+        <v>0.1188799999999958</v>
       </c>
       <c r="F14">
-        <v>0.04519999999999995</v>
+        <v>0.03959999999999906</v>
       </c>
       <c r="G14">
-        <v>0.009599999999999999</v>
+        <v>0.01164000000000003</v>
       </c>
       <c r="H14">
-        <v>0.004000000000000001</v>
+        <v>0.00484000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -799,22 +799,22 @@
         <v>1600</v>
       </c>
       <c r="C15">
-        <v>0.7583999999999818</v>
+        <v>0.7468800000001838</v>
       </c>
       <c r="D15">
-        <v>0.3720000000000065</v>
+        <v>0.1993200000000183</v>
       </c>
       <c r="E15">
-        <v>0.07279999999999978</v>
+        <v>0.04123999999999899</v>
       </c>
       <c r="F15">
-        <v>0.01599999999999999</v>
+        <v>0.01040000000000002</v>
       </c>
       <c r="G15">
-        <v>0.003200000000000001</v>
+        <v>0.001680000000000002</v>
       </c>
       <c r="H15">
-        <v>0.0004</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -828,22 +828,22 @@
         <v>1978</v>
       </c>
       <c r="C17">
-        <v>0.0188</v>
+        <v>0.02207999999999977</v>
       </c>
       <c r="D17">
-        <v>0.4520000000000088</v>
+        <v>0.4501999999999562</v>
       </c>
       <c r="E17">
-        <v>0.2640000000000035</v>
+        <v>0.2456400000000325</v>
       </c>
       <c r="F17">
-        <v>0.1039999999999996</v>
+        <v>0.1066799999999963</v>
       </c>
       <c r="G17">
-        <v>0.07879999999999975</v>
+        <v>0.0805599999999974</v>
       </c>
       <c r="H17">
-        <v>0.08719999999999969</v>
+        <v>0.09483999999999682</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -854,22 +854,22 @@
         <v>1835</v>
       </c>
       <c r="C18">
-        <v>0.3480000000000059</v>
+        <v>0.3681199999999881</v>
       </c>
       <c r="D18">
-        <v>0.4136000000000077</v>
+        <v>0.3618399999999905</v>
       </c>
       <c r="E18">
-        <v>0.1864000000000012</v>
+        <v>0.1703600000000095</v>
       </c>
       <c r="F18">
-        <v>0.0699999999999998</v>
+        <v>0.06371999999999808</v>
       </c>
       <c r="G18">
-        <v>0.02480000000000001</v>
+        <v>0.0238399999999997</v>
       </c>
       <c r="H18">
-        <v>0.01239999999999999</v>
+        <v>0.01212000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -880,22 +880,22 @@
         <v>1666</v>
       </c>
       <c r="C19">
-        <v>0.520400000000008</v>
+        <v>0.4899999999999408</v>
       </c>
       <c r="D19">
-        <v>0.4804000000000097</v>
+        <v>0.3513599999999946</v>
       </c>
       <c r="E19">
-        <v>0.1403999999999999</v>
+        <v>0.1199199999999958</v>
       </c>
       <c r="F19">
-        <v>0.03200000000000003</v>
+        <v>0.02811999999999953</v>
       </c>
       <c r="G19">
-        <v>0.008800000000000001</v>
+        <v>0.008000000000000018</v>
       </c>
       <c r="H19">
-        <v>0.003200000000000001</v>
+        <v>0.002600000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -906,22 +906,22 @@
         <v>1769</v>
       </c>
       <c r="C20">
-        <v>0.4692000000000093</v>
+        <v>0.4907999999999405</v>
       </c>
       <c r="D20">
-        <v>0.4060000000000075</v>
+        <v>0.3157200000000084</v>
       </c>
       <c r="E20">
-        <v>0.1572000000000004</v>
+        <v>0.1318799999999977</v>
       </c>
       <c r="F20">
-        <v>0.05079999999999991</v>
+        <v>0.04307999999999892</v>
       </c>
       <c r="G20">
-        <v>0.0188</v>
+        <v>0.01280000000000003</v>
       </c>
       <c r="H20">
-        <v>0.0092</v>
+        <v>0.005720000000000012</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -935,22 +935,22 @@
         <v>2036</v>
       </c>
       <c r="C22">
-        <v>0.008000000000000002</v>
+        <v>0.01416000000000003</v>
       </c>
       <c r="D22">
-        <v>0.2732000000000037</v>
+        <v>0.298560000000015</v>
       </c>
       <c r="E22">
-        <v>0.318800000000005</v>
+        <v>0.3163600000000081</v>
       </c>
       <c r="F22">
-        <v>0.1564000000000004</v>
+        <v>0.1530400000000042</v>
       </c>
       <c r="G22">
-        <v>0.1143999999999995</v>
+        <v>0.0976399999999967</v>
       </c>
       <c r="H22">
-        <v>0.1323999999999997</v>
+        <v>0.1202399999999958</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -961,22 +961,22 @@
         <v>1840</v>
       </c>
       <c r="C23">
-        <v>0.2328000000000026</v>
+        <v>0.234160000000029</v>
       </c>
       <c r="D23">
-        <v>0.4436000000000086</v>
+        <v>0.3743199999999857</v>
       </c>
       <c r="E23">
-        <v>0.2608000000000034</v>
+        <v>0.2421600000000315</v>
       </c>
       <c r="F23">
-        <v>0.1019999999999996</v>
+        <v>0.08851999999999707</v>
       </c>
       <c r="G23">
-        <v>0.04359999999999996</v>
+        <v>0.03919999999999908</v>
       </c>
       <c r="H23">
-        <v>0.0204</v>
+        <v>0.02163999999999979</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -987,22 +987,22 @@
         <v>1808</v>
       </c>
       <c r="C24">
-        <v>0.3972000000000073</v>
+        <v>0.4029599999999746</v>
       </c>
       <c r="D24">
-        <v>0.4124000000000077</v>
+        <v>0.3311200000000024</v>
       </c>
       <c r="E24">
-        <v>0.1876000000000013</v>
+        <v>0.1702400000000094</v>
       </c>
       <c r="F24">
-        <v>0.05919999999999986</v>
+        <v>0.06219999999999814</v>
       </c>
       <c r="G24">
-        <v>0.0204</v>
+        <v>0.02207999999999977</v>
       </c>
       <c r="H24">
-        <v>0.0108</v>
+        <v>0.01140000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1013,22 +1013,22 @@
         <v>1655</v>
       </c>
       <c r="C25">
-        <v>0.7707999999999804</v>
+        <v>0.74300000000018</v>
       </c>
       <c r="D25">
-        <v>0.3264000000000052</v>
+        <v>0.1714800000000098</v>
       </c>
       <c r="E25">
-        <v>0.0859999999999997</v>
+        <v>0.06391999999999808</v>
       </c>
       <c r="F25">
-        <v>0.02440000000000001</v>
+        <v>0.01652</v>
       </c>
       <c r="G25">
-        <v>0.006000000000000002</v>
+        <v>0.004000000000000008</v>
       </c>
       <c r="H25">
-        <v>0.0012</v>
+        <v>0.00108</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1042,22 +1042,22 @@
         <v>1746</v>
       </c>
       <c r="C27">
-        <v>0.7707999999999804</v>
+        <v>0.7399600000001769</v>
       </c>
       <c r="D27">
-        <v>0.214800000000002</v>
+        <v>0.1672800000000085</v>
       </c>
       <c r="E27">
-        <v>0.06039999999999986</v>
+        <v>0.06047999999999821</v>
       </c>
       <c r="F27">
-        <v>0.02440000000000001</v>
+        <v>0.02311999999999973</v>
       </c>
       <c r="G27">
-        <v>0.008000000000000002</v>
+        <v>0.006520000000000014</v>
       </c>
       <c r="H27">
-        <v>0.004800000000000001</v>
+        <v>0.002640000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1068,22 +1068,22 @@
         <v>2034</v>
       </c>
       <c r="C28">
-        <v>0.1131999999999995</v>
+        <v>0.1280399999999965</v>
       </c>
       <c r="D28">
-        <v>0.3548000000000061</v>
+        <v>0.3224800000000058</v>
       </c>
       <c r="E28">
-        <v>0.1984000000000016</v>
+        <v>0.2056400000000203</v>
       </c>
       <c r="F28">
-        <v>0.1411999999999999</v>
+        <v>0.149120000000003</v>
       </c>
       <c r="G28">
-        <v>0.1159999999999995</v>
+        <v>0.090239999999997</v>
       </c>
       <c r="H28">
-        <v>0.1159999999999995</v>
+        <v>0.1044799999999964</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1094,22 +1094,22 @@
         <v>2083</v>
       </c>
       <c r="C29">
-        <v>0.07439999999999977</v>
+        <v>0.09147999999999695</v>
       </c>
       <c r="D29">
-        <v>0.2620000000000034</v>
+        <v>0.2789200000000226</v>
       </c>
       <c r="E29">
-        <v>0.2032000000000017</v>
+        <v>0.1894800000000153</v>
       </c>
       <c r="F29">
-        <v>0.1524000000000003</v>
+        <v>0.1520400000000039</v>
       </c>
       <c r="G29">
-        <v>0.1071999999999996</v>
+        <v>0.1038399999999964</v>
       </c>
       <c r="H29">
-        <v>0.2076000000000018</v>
+        <v>0.1842400000000137</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1120,22 +1120,22 @@
         <v>1934</v>
       </c>
       <c r="C30">
-        <v>0.1928000000000014</v>
+        <v>0.2068000000000206</v>
       </c>
       <c r="D30">
-        <v>0.4260000000000081</v>
+        <v>0.386319999999981</v>
       </c>
       <c r="E30">
-        <v>0.1880000000000013</v>
+        <v>0.1871200000000146</v>
       </c>
       <c r="F30">
-        <v>0.1151999999999995</v>
+        <v>0.1199199999999958</v>
       </c>
       <c r="G30">
-        <v>0.06479999999999983</v>
+        <v>0.05643999999999837</v>
       </c>
       <c r="H30">
-        <v>0.03480000000000001</v>
+        <v>0.0433999999999989</v>
       </c>
     </row>
   </sheetData>
